--- a/ig/sd-add-short-relatedArtifact/all-profiles.xlsx
+++ b/ig/sd-add-short-relatedArtifact/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T10:01:52+00:00</t>
+    <t>2024-01-11T10:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2297,7 +2297,7 @@
 </t>
   </si>
   <si>
-    <t>References and dependencies</t>
+    <t>Publications et réumé des résultats / Publications about the study and Summary results</t>
   </si>
   <si>
     <t>Citations, references and other related documents.</t>
@@ -24779,7 +24779,7 @@
         <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>76</v>

--- a/ig/sd-add-short-relatedArtifact/all-profiles.xlsx
+++ b/ig/sd-add-short-relatedArtifact/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T10:11:59+00:00</t>
+    <t>2024-01-11T10:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2297,7 +2297,7 @@
 </t>
   </si>
   <si>
-    <t>Publications et réumé des résultats / Publications about the study and Summary results</t>
+    <t>Publications et résumé des résultats / Publications about the study and Summary results</t>
   </si>
   <si>
     <t>Citations, references and other related documents.</t>
